--- a/public/Excel/descriptions.xlsx
+++ b/public/Excel/descriptions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VueJs\ffafafa\public\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0990AB41-47AF-44DA-9739-B7C51D0F69C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F084138-ADA0-4FAB-9CB6-3608CBE96FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -31,33 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>2021-09-26T21:10:47.000000Z</t>
+    <t>Sấy Dẻo</t>
   </si>
   <si>
-    <t>danhha2</t>
+    <t>Sấy Khô</t>
   </si>
   <si>
-    <t>danhha3</t>
-  </si>
-  <si>
-    <t>danhha4</t>
-  </si>
-  <si>
-    <t>danhha5</t>
-  </si>
-  <si>
-    <t>STTT</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
+    <t>Ô Mai</t>
   </si>
 </sst>
 </file>
@@ -397,82 +379,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>115</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>116</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
